--- a/ComparedResults/DIV2_Tables.xlsx
+++ b/ComparedResults/DIV2_Tables.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV2\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91A9F9-9728-40A2-A50D-2E67D5054947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC104A7-CB04-4D9B-A5A4-2F70AC34992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
     <sheet name="HTotalRevComparison" sheetId="2" r:id="rId2"/>
     <sheet name="LiftLeaseComparison" sheetId="3" r:id="rId3"/>
     <sheet name="ViolationComparison" sheetId="4" r:id="rId4"/>
-    <sheet name="OperatorChanges" sheetId="5" r:id="rId5"/>
-    <sheet name="Week1AcceptRateComp" sheetId="6" r:id="rId6"/>
-    <sheet name="Week1CancelRateComp" sheetId="7" r:id="rId7"/>
-    <sheet name="Week1UtilizationComp" sheetId="8" r:id="rId8"/>
-    <sheet name="Week1PNormalHrsComp" sheetId="9" r:id="rId9"/>
-    <sheet name="Week1PBonusHrsComp" sheetId="10" r:id="rId10"/>
+    <sheet name="Week1AcceptRateComp" sheetId="5" r:id="rId5"/>
+    <sheet name="Week1CancelRateComp" sheetId="6" r:id="rId6"/>
+    <sheet name="Week1UtilizationComp" sheetId="7" r:id="rId7"/>
+    <sheet name="Week1PNormalHrsComp" sheetId="8" r:id="rId8"/>
+    <sheet name="Week1PBonusHrsComp" sheetId="9" r:id="rId9"/>
+    <sheet name="Week1ReqHrsComp" sheetId="10" r:id="rId10"/>
     <sheet name="Week2AcceptRateComp" sheetId="11" r:id="rId11"/>
     <sheet name="Week2CancelRateComp" sheetId="12" r:id="rId12"/>
     <sheet name="Week2UtilizationComp" sheetId="13" r:id="rId13"/>
     <sheet name="Week2PNormalHrsComp" sheetId="14" r:id="rId14"/>
     <sheet name="Week2PBonusHrsComp" sheetId="15" r:id="rId15"/>
+    <sheet name="Week2ReqHrsComp" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="11">
   <si>
     <t>LATEST</t>
   </si>
@@ -67,15 +68,6 @@
   </si>
   <si>
     <t>Q-TELL TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>Operator Name</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -547,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>0.47</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>36.71</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="2">
-        <v>50.32</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>13.61</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>0.84</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>71.94</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="2">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-2.2000000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>26.74</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>13.74</v>
+        <v>0.99</v>
       </c>
       <c r="D6" s="4">
-        <v>-13</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1132,6 +1124,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
@@ -1442,26 +1537,100 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>97.88</v>
+      </c>
+      <c r="C3" s="2">
+        <v>99.05</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>89.78</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C5" s="2">
+        <v>97.77</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>95.95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>85.47</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-10.48</v>
       </c>
     </row>
   </sheetData>
@@ -1502,13 +1671,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>2.04</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>3.12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,13 +1685,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>97.88</v>
+        <v>4.05</v>
       </c>
       <c r="C3" s="2">
-        <v>99.05</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.17</v>
+        <v>3.58</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>89.78</v>
+        <v>3.25</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.220000000000001</v>
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,13 +1713,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>70.099999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="2">
-        <v>97.77</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D5" s="3">
-        <v>27.66</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1727,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>95.95</v>
+        <v>1.88</v>
       </c>
       <c r="C6" s="2">
-        <v>85.47</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-10.48</v>
+        <v>2.72</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1774,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>2.04</v>
+        <v>92.58</v>
       </c>
       <c r="C2" s="2">
-        <v>3.12</v>
+        <v>96.74</v>
       </c>
       <c r="D2" s="3">
-        <v>1.08</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,13 +1788,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>4.05</v>
+        <v>89.6</v>
       </c>
       <c r="C3" s="2">
-        <v>3.58</v>
+        <v>88.94</v>
       </c>
       <c r="D3" s="4">
-        <v>-0.47</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,13 +1802,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>3.25</v>
+        <v>95.66</v>
       </c>
       <c r="C4" s="2">
-        <v>0.8</v>
+        <v>95.66</v>
       </c>
       <c r="D4" s="4">
-        <v>-2.4500000000000002</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,13 +1816,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5</v>
+        <v>75.88</v>
       </c>
       <c r="C5" s="2">
-        <v>0.56999999999999995</v>
+        <v>79.12</v>
       </c>
       <c r="D5" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1.88</v>
+        <v>82.93</v>
       </c>
       <c r="C6" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.84</v>
+        <v>76.55</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-6.39</v>
       </c>
     </row>
   </sheetData>
@@ -1708,13 +1877,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>92.58</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>96.74</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.16</v>
+        <v>23.63</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-26.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,13 +1891,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>89.6</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2">
-        <v>88.94</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.66</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>95.66</v>
+        <v>45.44</v>
       </c>
       <c r="C4" s="2">
-        <v>95.66</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-0.01</v>
+        <v>50.22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,13 +1919,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>75.88</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2">
-        <v>79.12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.25</v>
+        <v>140</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,13 +1933,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>82.93</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
-        <v>76.55</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-6.39</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1811,13 +1980,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>23.63</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-26.37</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,13 +1994,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>140</v>
+        <v>36.71</v>
       </c>
       <c r="C3" s="2">
-        <v>140</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>50.32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13.61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>45.44</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>50.22</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.78</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,13 +2022,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>140</v>
+        <v>71.94</v>
       </c>
       <c r="C5" s="2">
-        <v>140</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+        <v>69.739999999999995</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>70</v>
+        <v>26.74</v>
       </c>
       <c r="C6" s="2">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>13.74</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/DIV2_Tables.xlsx
+++ b/ComparedResults/DIV2_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV2\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC104A7-CB04-4D9B-A5A4-2F70AC34992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A52CF-4791-41E6-B8BB-8AF027FA441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>

--- a/ComparedResults/DIV2_Tables.xlsx
+++ b/ComparedResults/DIV2_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A52CF-4791-41E6-B8BB-8AF027FA441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0D3EF-6F75-4072-AEFC-30C8F1C608F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,8 +1236,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1259,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>566.66</v>
+        <v>2641.24</v>
       </c>
       <c r="C2" s="2">
-        <v>1631.5</v>
+        <v>1152.02</v>
       </c>
       <c r="D2" s="4">
-        <v>-1064.8399999999999</v>
+        <v>-1489.22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>6639</v>
+        <v>13278.34</v>
       </c>
       <c r="C3" s="2">
-        <v>5817.16</v>
+        <v>13893.26</v>
       </c>
       <c r="D3" s="3">
-        <v>821.83</v>
+        <v>614.91999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1245.8499999999999</v>
+        <v>2024.62</v>
       </c>
       <c r="C4" s="2">
-        <v>1239.97</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.88</v>
+        <v>1852.16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-172.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>7408.82</v>
+        <v>13231.05</v>
       </c>
       <c r="C5" s="2">
-        <v>6077.61</v>
+        <v>14843.35</v>
       </c>
       <c r="D5" s="3">
-        <v>1331.21</v>
+        <v>1612.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>2548.19</v>
+        <v>4626.1000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>3422</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-873.8</v>
+        <v>6237.46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1611.36</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/DIV2_Tables.xlsx
+++ b/ComparedResults/DIV2_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0D3EF-6F75-4072-AEFC-30C8F1C608F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B5353-27AF-4BAC-8EE9-280328A64007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="C2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-0.53</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.98</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.02</v>
+      <c r="D3" s="4">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.27</v>
+      <c r="D4" s="4">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.96</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.04</v>
+      <c r="D5" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -656,13 +656,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>99.12</v>
+      </c>
+      <c r="C3" s="2">
         <v>99.08</v>
       </c>
-      <c r="C3" s="2">
-        <v>99.12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.04</v>
+      <c r="D3" s="4">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="C5" s="2">
         <v>82.28</v>
       </c>
-      <c r="C5" s="2">
-        <v>96.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14.23</v>
+      <c r="D5" s="4">
+        <v>-14.23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>93.47</v>
+      </c>
+      <c r="C6" s="2">
         <v>76.510000000000005</v>
       </c>
-      <c r="C6" s="2">
-        <v>93.47</v>
-      </c>
-      <c r="D6" s="3">
-        <v>16.96</v>
+      <c r="D6" s="4">
+        <v>-16.96</v>
       </c>
     </row>
   </sheetData>
@@ -745,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.02</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-2.02</v>
+      <c r="D2" s="3">
+        <v>2.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.04</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.51</v>
+      <c r="D3" s="4">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.25</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.25</v>
+      <c r="D4" s="3">
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="C5" s="2">
         <v>1.76</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.17</v>
+      <c r="D5" s="4">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.88</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.74</v>
+      <c r="D6" s="4">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>92.77</v>
+      </c>
+      <c r="C2" s="2">
         <v>96.14</v>
       </c>
-      <c r="C2" s="2">
-        <v>92.77</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-3.37</v>
+      <c r="D2" s="3">
+        <v>3.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>83.63</v>
+      </c>
+      <c r="C3" s="2">
         <v>91.79</v>
       </c>
-      <c r="C3" s="2">
-        <v>83.63</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-8.16</v>
+      <c r="D3" s="3">
+        <v>8.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>94.81</v>
+      </c>
+      <c r="C4" s="2">
         <v>96.29</v>
       </c>
-      <c r="C4" s="2">
-        <v>94.81</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.48</v>
+      <c r="D4" s="3">
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="C5" s="2">
         <v>79.349999999999994</v>
       </c>
-      <c r="C5" s="2">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-9.85</v>
+      <c r="D5" s="3">
+        <v>9.85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="C6" s="2">
         <v>87.66</v>
       </c>
-      <c r="C6" s="2">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-11.4</v>
+      <c r="D6" s="3">
+        <v>11.4</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>24.35</v>
+      </c>
+      <c r="C2" s="2">
         <v>40.159999999999997</v>
       </c>
-      <c r="C2" s="2">
-        <v>24.35</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-15.81</v>
+      <c r="D2" s="3">
+        <v>15.81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>26.38</v>
+      </c>
+      <c r="C4" s="2">
         <v>30.71</v>
       </c>
-      <c r="C4" s="2">
-        <v>26.38</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-4.33</v>
+      <c r="D4" s="3">
+        <v>4.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
         <v>55.01</v>
       </c>
-      <c r="C6" s="2">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3">
-        <v>14.99</v>
+      <c r="D6" s="4">
+        <v>-14.99</v>
       </c>
     </row>
   </sheetData>
@@ -1068,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>65.48</v>
+      </c>
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="C3" s="2">
-        <v>65.48</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-4.5199999999999996</v>
+      <c r="D3" s="3">
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>36.97</v>
       </c>
       <c r="C6" s="2">
-        <v>36.97</v>
-      </c>
-      <c r="D6" s="3">
-        <v>36.97</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-36.97</v>
       </c>
     </row>
   </sheetData>
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-0.32</v>
+      <c r="D2" s="3">
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.51</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-7.0000000000000007E-2</v>
+      <c r="D4" s="3">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.45</v>
+      <c r="D6" s="4">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -1244,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1258,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>1152.02</v>
+      </c>
+      <c r="C2" s="2">
         <v>2641.24</v>
       </c>
-      <c r="C2" s="2">
-        <v>1152.02</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-1489.22</v>
+      <c r="D2" s="3">
+        <v>1489.22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>13893.26</v>
+      </c>
+      <c r="C3" s="2">
         <v>13278.34</v>
       </c>
-      <c r="C3" s="2">
-        <v>13893.26</v>
-      </c>
-      <c r="D3" s="3">
-        <v>614.91999999999996</v>
+      <c r="D3" s="4">
+        <v>-614.91999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>1852.16</v>
+      </c>
+      <c r="C4" s="2">
         <v>2024.62</v>
       </c>
-      <c r="C4" s="2">
-        <v>1852.16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-172.46</v>
+      <c r="D4" s="3">
+        <v>172.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>14843.35</v>
+      </c>
+      <c r="C5" s="2">
         <v>13231.05</v>
       </c>
-      <c r="C5" s="2">
-        <v>14843.35</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1612.3</v>
+      <c r="D5" s="4">
+        <v>-1612.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>6237.46</v>
+      </c>
+      <c r="C6" s="2">
         <v>4626.1000000000004</v>
       </c>
-      <c r="C6" s="2">
-        <v>6237.46</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1611.36</v>
+      <c r="D6" s="4">
+        <v>-1611.36</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2">
         <v>595</v>
       </c>
-      <c r="C3" s="2">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3">
-        <v>95</v>
+      <c r="D3" s="4">
+        <v>-95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>130</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>130</v>
+      <c r="D5" s="4">
+        <v>-130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>95</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>95</v>
+      <c r="D6" s="4">
+        <v>-95</v>
       </c>
     </row>
   </sheetData>
@@ -1581,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>99.05</v>
+      </c>
+      <c r="C3" s="2">
         <v>97.88</v>
       </c>
-      <c r="C3" s="2">
-        <v>99.05</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.17</v>
+      <c r="D3" s="4">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
         <v>89.78</v>
       </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.220000000000001</v>
+      <c r="D4" s="4">
+        <v>-10.220000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>97.77</v>
+      </c>
+      <c r="C5" s="2">
         <v>70.099999999999994</v>
       </c>
-      <c r="C5" s="2">
-        <v>97.77</v>
-      </c>
-      <c r="D5" s="3">
-        <v>27.66</v>
+      <c r="D5" s="4">
+        <v>-27.66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>85.47</v>
+      </c>
+      <c r="C6" s="2">
         <v>95.95</v>
       </c>
-      <c r="C6" s="2">
-        <v>85.47</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-10.48</v>
+      <c r="D6" s="3">
+        <v>10.48</v>
       </c>
     </row>
   </sheetData>
@@ -1670,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.04</v>
       </c>
-      <c r="C2" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.08</v>
+      <c r="D2" s="4">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="C3" s="2">
         <v>4.05</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.47</v>
+      <c r="D3" s="3">
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="2">
         <v>3.25</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-2.4500000000000002</v>
+      <c r="D4" s="3">
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1712,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="D5" s="4">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="C6" s="2">
         <v>1.88</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.84</v>
+      <c r="D6" s="4">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>96.74</v>
+      </c>
+      <c r="C2" s="2">
         <v>92.58</v>
       </c>
-      <c r="C2" s="2">
-        <v>96.74</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.16</v>
+      <c r="D2" s="4">
+        <v>-4.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>88.94</v>
+      </c>
+      <c r="C3" s="2">
         <v>89.6</v>
       </c>
-      <c r="C3" s="2">
-        <v>88.94</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.66</v>
+      <c r="D3" s="3">
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,8 +1806,8 @@
       <c r="C4" s="2">
         <v>95.66</v>
       </c>
-      <c r="D4" s="4">
-        <v>-0.01</v>
+      <c r="D4" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>79.12</v>
+      </c>
+      <c r="C5" s="2">
         <v>75.88</v>
       </c>
-      <c r="C5" s="2">
-        <v>79.12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.25</v>
+      <c r="D5" s="4">
+        <v>-3.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>76.55</v>
+      </c>
+      <c r="C6" s="2">
         <v>82.93</v>
       </c>
-      <c r="C6" s="2">
-        <v>76.55</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-6.39</v>
+      <c r="D6" s="3">
+        <v>6.39</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>23.63</v>
+      </c>
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
-        <v>23.63</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-26.37</v>
+      <c r="D2" s="3">
+        <v>26.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>50.22</v>
+      </c>
+      <c r="C4" s="2">
         <v>45.44</v>
       </c>
-      <c r="C4" s="2">
-        <v>50.22</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.78</v>
+      <c r="D4" s="4">
+        <v>-4.78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>50.32</v>
+      </c>
+      <c r="C3" s="2">
         <v>36.71</v>
       </c>
-      <c r="C3" s="2">
-        <v>50.32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>13.61</v>
+      <c r="D3" s="4">
+        <v>-13.61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2021,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="C5" s="2">
         <v>71.94</v>
       </c>
-      <c r="C5" s="2">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-2.2000000000000002</v>
+      <c r="D5" s="3">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>13.74</v>
+      </c>
+      <c r="C6" s="2">
         <v>26.74</v>
       </c>
-      <c r="C6" s="2">
-        <v>13.74</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-13</v>
+      <c r="D6" s="3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/DIV2_Tables.xlsx
+++ b/ComparedResults/DIV2_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV2\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B5353-27AF-4BAC-8EE9-280328A64007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF2CE04-837B-4C01-83F2-54E265C0681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.47</v>
+        <v>47.26</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.53</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-52.74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.02</v>
+        <v>98.17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.84</v>
+        <v>83.7</v>
       </c>
       <c r="C4" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-0.27</v>
+        <v>56.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>26.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>99.88</v>
       </c>
       <c r="C5" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-0.04</v>
+        <v>96.34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.99</v>
+        <v>98.52</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1.48</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +661,8 @@
       <c r="C3" s="2">
         <v>99.08</v>
       </c>
-      <c r="D3" s="4">
-        <v>-0.04</v>
+      <c r="D3" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,8 +689,8 @@
       <c r="C5" s="2">
         <v>82.28</v>
       </c>
-      <c r="D5" s="4">
-        <v>-14.23</v>
+      <c r="D5" s="3">
+        <v>14.23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,8 +703,8 @@
       <c r="C6" s="2">
         <v>76.510000000000005</v>
       </c>
-      <c r="D6" s="4">
-        <v>-16.96</v>
+      <c r="D6" s="3">
+        <v>16.96</v>
       </c>
     </row>
   </sheetData>
@@ -750,8 +750,8 @@
       <c r="C2" s="2">
         <v>2.02</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.02</v>
+      <c r="D2" s="4">
+        <v>-2.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,8 +764,8 @@
       <c r="C3" s="2">
         <v>2.04</v>
       </c>
-      <c r="D3" s="4">
-        <v>-1.51</v>
+      <c r="D3" s="3">
+        <v>1.51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,8 +778,8 @@
       <c r="C4" s="2">
         <v>1.25</v>
       </c>
-      <c r="D4" s="3">
-        <v>1.25</v>
+      <c r="D4" s="4">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,8 +792,8 @@
       <c r="C5" s="2">
         <v>1.76</v>
       </c>
-      <c r="D5" s="4">
-        <v>-0.17</v>
+      <c r="D5" s="3">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,8 +806,8 @@
       <c r="C6" s="2">
         <v>0.88</v>
       </c>
-      <c r="D6" s="4">
-        <v>-0.74</v>
+      <c r="D6" s="3">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -853,8 +853,8 @@
       <c r="C2" s="2">
         <v>96.14</v>
       </c>
-      <c r="D2" s="3">
-        <v>3.37</v>
+      <c r="D2" s="4">
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,8 +867,8 @@
       <c r="C3" s="2">
         <v>91.79</v>
       </c>
-      <c r="D3" s="3">
-        <v>8.16</v>
+      <c r="D3" s="4">
+        <v>-8.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,8 +881,8 @@
       <c r="C4" s="2">
         <v>96.29</v>
       </c>
-      <c r="D4" s="3">
-        <v>1.48</v>
+      <c r="D4" s="4">
+        <v>-1.48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,8 +895,8 @@
       <c r="C5" s="2">
         <v>79.349999999999994</v>
       </c>
-      <c r="D5" s="3">
-        <v>9.85</v>
+      <c r="D5" s="4">
+        <v>-9.85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,8 +909,8 @@
       <c r="C6" s="2">
         <v>87.66</v>
       </c>
-      <c r="D6" s="3">
-        <v>11.4</v>
+      <c r="D6" s="4">
+        <v>-11.4</v>
       </c>
     </row>
   </sheetData>
@@ -956,8 +956,8 @@
       <c r="C2" s="2">
         <v>40.159999999999997</v>
       </c>
-      <c r="D2" s="3">
-        <v>15.81</v>
+      <c r="D2" s="4">
+        <v>-15.81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,8 +984,8 @@
       <c r="C4" s="2">
         <v>30.71</v>
       </c>
-      <c r="D4" s="3">
-        <v>4.33</v>
+      <c r="D4" s="4">
+        <v>-4.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,8 +1012,8 @@
       <c r="C6" s="2">
         <v>55.01</v>
       </c>
-      <c r="D6" s="4">
-        <v>-14.99</v>
+      <c r="D6" s="3">
+        <v>14.99</v>
       </c>
     </row>
   </sheetData>
@@ -1073,8 +1073,8 @@
       <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="3">
-        <v>4.5199999999999996</v>
+      <c r="D3" s="4">
+        <v>-4.5199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,8 +1115,8 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>-36.97</v>
+      <c r="D6" s="3">
+        <v>36.97</v>
       </c>
     </row>
   </sheetData>
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.49</v>
+        <v>48.7</v>
       </c>
       <c r="C2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.32</v>
+        <v>80.319999999999993</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-31.62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.44</v>
+        <v>43.97</v>
       </c>
       <c r="C4" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>51.18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-7.22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.45</v>
+        <v>55.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44.99</v>
       </c>
     </row>
   </sheetData>
@@ -1263,8 +1263,8 @@
       <c r="C2" s="2">
         <v>2641.24</v>
       </c>
-      <c r="D2" s="3">
-        <v>1489.22</v>
+      <c r="D2" s="4">
+        <v>-1489.22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,8 +1277,8 @@
       <c r="C3" s="2">
         <v>13278.34</v>
       </c>
-      <c r="D3" s="4">
-        <v>-614.91999999999996</v>
+      <c r="D3" s="3">
+        <v>614.91999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,8 +1291,8 @@
       <c r="C4" s="2">
         <v>2024.62</v>
       </c>
-      <c r="D4" s="3">
-        <v>172.46</v>
+      <c r="D4" s="4">
+        <v>-172.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,8 +1305,8 @@
       <c r="C5" s="2">
         <v>13231.05</v>
       </c>
-      <c r="D5" s="4">
-        <v>-1612.3</v>
+      <c r="D5" s="3">
+        <v>1612.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,8 +1319,8 @@
       <c r="C6" s="2">
         <v>4626.1000000000004</v>
       </c>
-      <c r="D6" s="4">
-        <v>-1611.36</v>
+      <c r="D6" s="3">
+        <v>1611.36</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>595</v>
+      </c>
+      <c r="C3" s="2">
         <v>500</v>
       </c>
-      <c r="C3" s="2">
-        <v>595</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-95</v>
+      <c r="D3" s="3">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>130</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>95</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-95</v>
       </c>
     </row>
   </sheetData>
@@ -1586,8 +1586,8 @@
       <c r="C3" s="2">
         <v>97.88</v>
       </c>
-      <c r="D3" s="4">
-        <v>-1.17</v>
+      <c r="D3" s="3">
+        <v>1.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,8 +1600,8 @@
       <c r="C4" s="2">
         <v>89.78</v>
       </c>
-      <c r="D4" s="4">
-        <v>-10.220000000000001</v>
+      <c r="D4" s="3">
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,8 +1614,8 @@
       <c r="C5" s="2">
         <v>70.099999999999994</v>
       </c>
-      <c r="D5" s="4">
-        <v>-27.66</v>
+      <c r="D5" s="3">
+        <v>27.66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,8 +1628,8 @@
       <c r="C6" s="2">
         <v>95.95</v>
       </c>
-      <c r="D6" s="3">
-        <v>10.48</v>
+      <c r="D6" s="4">
+        <v>-10.48</v>
       </c>
     </row>
   </sheetData>
@@ -1675,8 +1675,8 @@
       <c r="C2" s="2">
         <v>2.04</v>
       </c>
-      <c r="D2" s="4">
-        <v>-1.08</v>
+      <c r="D2" s="3">
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,8 +1689,8 @@
       <c r="C3" s="2">
         <v>4.05</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.47</v>
+      <c r="D3" s="4">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,8 +1703,8 @@
       <c r="C4" s="2">
         <v>3.25</v>
       </c>
-      <c r="D4" s="3">
-        <v>2.4500000000000002</v>
+      <c r="D4" s="4">
+        <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,8 +1717,8 @@
       <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="D5" s="4">
-        <v>-7.0000000000000007E-2</v>
+      <c r="D5" s="3">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,8 +1731,8 @@
       <c r="C6" s="2">
         <v>1.88</v>
       </c>
-      <c r="D6" s="4">
-        <v>-0.84</v>
+      <c r="D6" s="3">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1778,8 +1778,8 @@
       <c r="C2" s="2">
         <v>92.58</v>
       </c>
-      <c r="D2" s="4">
-        <v>-4.16</v>
+      <c r="D2" s="3">
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,8 +1792,8 @@
       <c r="C3" s="2">
         <v>89.6</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.66</v>
+      <c r="D3" s="4">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,8 +1806,8 @@
       <c r="C4" s="2">
         <v>95.66</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.01</v>
+      <c r="D4" s="4">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,8 +1820,8 @@
       <c r="C5" s="2">
         <v>75.88</v>
       </c>
-      <c r="D5" s="4">
-        <v>-3.25</v>
+      <c r="D5" s="3">
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,8 +1834,8 @@
       <c r="C6" s="2">
         <v>82.93</v>
       </c>
-      <c r="D6" s="3">
-        <v>6.39</v>
+      <c r="D6" s="4">
+        <v>-6.39</v>
       </c>
     </row>
   </sheetData>
@@ -1881,8 +1881,8 @@
       <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" s="3">
-        <v>26.37</v>
+      <c r="D2" s="4">
+        <v>-26.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,8 +1909,8 @@
       <c r="C4" s="2">
         <v>45.44</v>
       </c>
-      <c r="D4" s="4">
-        <v>-4.78</v>
+      <c r="D4" s="3">
+        <v>4.78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,8 +1998,8 @@
       <c r="C3" s="2">
         <v>36.71</v>
       </c>
-      <c r="D3" s="4">
-        <v>-13.61</v>
+      <c r="D3" s="3">
+        <v>13.61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,8 +2026,8 @@
       <c r="C5" s="2">
         <v>71.94</v>
       </c>
-      <c r="D5" s="3">
-        <v>2.2000000000000002</v>
+      <c r="D5" s="4">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,8 +2040,8 @@
       <c r="C6" s="2">
         <v>26.74</v>
       </c>
-      <c r="D6" s="3">
-        <v>13</v>
+      <c r="D6" s="4">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
